--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jirka_PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jirka_PC\Downloads\MPC-STU-Image-Augmentation-Libraries-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B52A14-3ED6-4269-9074-8851DA9CCF31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95543C76-920F-4A90-8B52-DDE526C0198C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="2475" windowWidth="26970" windowHeight="15435" xr2:uid="{236DB636-AFCF-4460-A5A5-F10D98110A49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{236DB636-AFCF-4460-A5A5-F10D98110A49}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="2" r:id="rId1"/>
@@ -314,7 +314,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7810.0884999999998</c:v>
+                  <c:v>9330.0725000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -367,7 +367,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1869.9953</c:v>
+                  <c:v>2384.6217999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,7 +420,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13708.3536</c:v>
+                  <c:v>13835.666999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,7 +473,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14443.3434</c:v>
+                  <c:v>14586.737999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,7 +526,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>42142.219499999999</c:v>
+                  <c:v>42862.325700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,7 +865,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13011.015600000001</c:v>
+                  <c:v>12575.6759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +918,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7924.7502999999997</c:v>
+                  <c:v>8006.7766000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,7 +971,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12794.5309</c:v>
+                  <c:v>12883.868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,7 +1024,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>45638.103900000002</c:v>
+                  <c:v>42143.277000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1110,7 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>525083.6324</c:v>
+                        <c:v>528737.25589999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1459,7 +1459,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8698.6790000000001</c:v>
+                  <c:v>8524.2924000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,7 +1512,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1999.5198</c:v>
+                  <c:v>2119.3337999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,7 +1565,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12965.435799999999</c:v>
+                  <c:v>13046.259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,7 +1618,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13719.2757</c:v>
+                  <c:v>13957.0507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1671,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>41870.890399999997</c:v>
+                  <c:v>42032.701099999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,7 +2029,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>92506.882199999993</c:v>
+                  <c:v>96542.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,7 +2082,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16456.4732</c:v>
+                  <c:v>15766.7999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,7 +2135,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17850.2395</c:v>
+                  <c:v>18098.883300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,7 +2188,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17433.529500000001</c:v>
+                  <c:v>17682.831200000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2241,7 +2241,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>45717.748399999997</c:v>
+                  <c:v>45612.996800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2593,7 +2593,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24794.407599999999</c:v>
+                  <c:v>25980.2804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,7 +2646,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4657.5011999999997</c:v>
+                  <c:v>4984.3801999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2699,7 +2699,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17703.0576</c:v>
+                  <c:v>17975.319899999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2752,7 +2752,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5330.7305999999999</c:v>
+                  <c:v>5853.3442999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,7 +2805,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9377.8961999999992</c:v>
+                  <c:v>5502.2815000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,7 +3144,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13011.015600000001</c:v>
+                  <c:v>12575.6759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,7 +3197,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7924.7502999999997</c:v>
+                  <c:v>8006.7766000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3250,7 +3250,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12794.5309</c:v>
+                  <c:v>12883.868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,7 +3303,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>525083.6324</c:v>
+                  <c:v>528737.25589999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3356,7 +3356,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>45638.103900000002</c:v>
+                  <c:v>42143.277000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3708,7 +3708,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15858.3791</c:v>
+                  <c:v>17597.888900000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3761,7 +3761,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8602.7021999999997</c:v>
+                  <c:v>8929.4025999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3814,7 +3814,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13628.8261</c:v>
+                  <c:v>13657.9856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3867,7 +3867,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>109141.8716</c:v>
+                  <c:v>109297.6844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,7 +3920,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>51018.539400000001</c:v>
+                  <c:v>46619.2762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4219,7 +4219,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3820.8123999999998</c:v>
+                  <c:v>3618.8717999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4272,7 +4272,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>933.13390000000004</c:v>
+                  <c:v>1002.3187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4325,7 +4325,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>87.764799999999994</c:v>
+                  <c:v>83.776600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4378,7 +4378,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18134.071400000001</c:v>
+                  <c:v>18051.374899999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4431,7 +4431,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7502.9431000000004</c:v>
+                  <c:v>3089.7656999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4783,7 +4783,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6442.7691999999997</c:v>
+                  <c:v>7632.1718000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4836,7 +4836,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1572.7929999999999</c:v>
+                  <c:v>1408.9443000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4889,7 +4889,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>290.22320000000002</c:v>
+                  <c:v>289.25639999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4942,7 +4942,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1137.9557</c:v>
+                  <c:v>1154.9115999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4995,7 +4995,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9923.4367999999995</c:v>
+                  <c:v>6082.7300999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5360,7 +5360,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6540.0236999999997</c:v>
+                  <c:v>6350.1289999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5413,7 +5413,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1329.4409000000001</c:v>
+                  <c:v>1423.1937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5466,7 +5466,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12854.616400000001</c:v>
+                  <c:v>12851.4848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5519,7 +5519,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23433.273799999999</c:v>
+                  <c:v>23526.073499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5572,7 +5572,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19520.717799999999</c:v>
+                  <c:v>15708.981400000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11945,7 +11945,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11983,19 +11983,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>7810.0884999999998</v>
+        <v>9330.0725000000002</v>
       </c>
       <c r="C2" s="2">
-        <v>1869.9953</v>
+        <v>2384.6217999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>13708.3536</v>
+        <v>13835.666999999999</v>
       </c>
       <c r="E2" s="2">
-        <v>14443.3434</v>
+        <v>14586.737999999999</v>
       </c>
       <c r="F2" s="2">
-        <v>42142.219499999999</v>
+        <v>42862.325700000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12003,19 +12003,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>8698.6790000000001</v>
+        <v>8524.2924000000003</v>
       </c>
       <c r="C3" s="2">
-        <v>1999.5198</v>
+        <v>2119.3337999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>12965.435799999999</v>
+        <v>13046.259</v>
       </c>
       <c r="E3" s="2">
-        <v>13719.2757</v>
+        <v>13957.0507</v>
       </c>
       <c r="F3" s="2">
-        <v>41870.890399999997</v>
+        <v>42032.701099999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12023,19 +12023,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>92506.882199999993</v>
+        <v>96542.71</v>
       </c>
       <c r="C4" s="2">
-        <v>16456.4732</v>
+        <v>15766.7999</v>
       </c>
       <c r="D4" s="2">
-        <v>17850.2395</v>
+        <v>18098.883300000001</v>
       </c>
       <c r="E4" s="2">
-        <v>17433.529500000001</v>
+        <v>17682.831200000001</v>
       </c>
       <c r="F4" s="2">
-        <v>45717.748399999997</v>
+        <v>45612.996800000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12043,19 +12043,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>24794.407599999999</v>
+        <v>25980.2804</v>
       </c>
       <c r="C5" s="2">
-        <v>4657.5011999999997</v>
+        <v>4984.3801999999996</v>
       </c>
       <c r="D5" s="2">
-        <v>17703.0576</v>
+        <v>17975.319899999999</v>
       </c>
       <c r="E5" s="2">
-        <v>5330.7305999999999</v>
+        <v>5853.3442999999997</v>
       </c>
       <c r="F5" s="2">
-        <v>9377.8961999999992</v>
+        <v>5502.2815000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12063,19 +12063,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>13011.015600000001</v>
+        <v>12575.6759</v>
       </c>
       <c r="C6" s="2">
-        <v>7924.7502999999997</v>
+        <v>8006.7766000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>12794.5309</v>
+        <v>12883.868</v>
       </c>
       <c r="E6" s="2">
-        <v>525083.6324</v>
+        <v>528737.25589999999</v>
       </c>
       <c r="F6" s="2">
-        <v>45638.103900000002</v>
+        <v>42143.277000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12083,19 +12083,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>15858.3791</v>
+        <v>17597.888900000002</v>
       </c>
       <c r="C7" s="2">
-        <v>8602.7021999999997</v>
+        <v>8929.4025999999994</v>
       </c>
       <c r="D7" s="2">
-        <v>13628.8261</v>
+        <v>13657.9856</v>
       </c>
       <c r="E7" s="2">
-        <v>109141.8716</v>
+        <v>109297.6844</v>
       </c>
       <c r="F7" s="2">
-        <v>51018.539400000001</v>
+        <v>46619.2762</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12103,19 +12103,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>3820.8123999999998</v>
+        <v>3618.8717999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>933.13390000000004</v>
+        <v>1002.3187</v>
       </c>
       <c r="D8" s="2">
-        <v>87.764799999999994</v>
+        <v>83.776600000000002</v>
       </c>
       <c r="E8" s="2">
-        <v>18134.071400000001</v>
+        <v>18051.374899999999</v>
       </c>
       <c r="F8" s="2">
-        <v>7502.9431000000004</v>
+        <v>3089.7656999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12123,19 +12123,19 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>6442.7691999999997</v>
+        <v>7632.1718000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>1572.7929999999999</v>
+        <v>1408.9443000000001</v>
       </c>
       <c r="D9" s="2">
-        <v>290.22320000000002</v>
+        <v>289.25639999999999</v>
       </c>
       <c r="E9" s="2">
-        <v>1137.9557</v>
+        <v>1154.9115999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>9923.4367999999995</v>
+        <v>6082.7300999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12143,19 +12143,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>6540.0236999999997</v>
+        <v>6350.1289999999999</v>
       </c>
       <c r="C10" s="2">
-        <v>1329.4409000000001</v>
+        <v>1423.1937</v>
       </c>
       <c r="D10" s="2">
-        <v>12854.616400000001</v>
+        <v>12851.4848</v>
       </c>
       <c r="E10" s="2">
-        <v>23433.273799999999</v>
+        <v>23526.073499999999</v>
       </c>
       <c r="F10" s="2">
-        <v>19520.717799999999</v>
+        <v>15708.981400000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12164,7 +12164,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -12182,7 +12182,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -12197,19 +12197,19 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12224,10 +12224,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12269,7 +12269,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -12281,13 +12281,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
@@ -12299,7 +12299,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12324,11 +12324,11 @@
       <c r="A20" s="1"/>
       <c r="B20" s="2">
         <f t="shared" ref="B20:E20" si="0">SUM(B11:B19)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
         <f>SUM(C11:C19)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
@@ -12336,11 +12336,11 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2">
         <f>SUM(F11:F19)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
